--- a/Double_Slit/week24-secondStatProof.xlsx
+++ b/Double_Slit/week24-secondStatProof.xlsx
@@ -197,25 +197,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6848453616444126</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6901960800285136</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7795964912578246</c:v>
+                  <c:v>60.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0733517023869008</c:v>
+                  <c:v>118.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4211101297934343</c:v>
+                  <c:v>263.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7343997425205671</c:v>
+                  <c:v>542.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9995654882259823</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -227,25 +227,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.93989825436007135</c:v>
+                  <c:v>8.7075956625363808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79982025860227479</c:v>
+                  <c:v>6.3069626428081671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80078858681093312</c:v>
+                  <c:v>6.321040701937898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96225450536683854</c:v>
+                  <c:v>9.1675757125013391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1246807210325835</c:v>
+                  <c:v>13.325414315009747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1233723548619208</c:v>
+                  <c:v>13.285330255586423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6898038178316102</c:v>
+                  <c:v>48.955762343841265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,25 +284,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6848453616444126</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6901960800285136</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7795964912578246</c:v>
+                  <c:v>60.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0733517023869008</c:v>
+                  <c:v>118.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4211101297934343</c:v>
+                  <c:v>263.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7343997425205671</c:v>
+                  <c:v>542.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9995654882259823</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,6 +313,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>17.9909001292074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.871352332261566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.50006761119252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7428848923153195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0532477493400627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4489088028730732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9004767110952212</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -350,25 +371,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.6848453616444126</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6901960800285136</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7795964912578246</c:v>
+                  <c:v>60.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0733517023869008</c:v>
+                  <c:v>118.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4211101297934343</c:v>
+                  <c:v>263.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7343997425205671</c:v>
+                  <c:v>542.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9995654882259823</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,25 +401,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2980159327390448</c:v>
+                  <c:v>6.9570108523704342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.300075413208216</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3340151765470378</c:v>
+                  <c:v>7.758865896508329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4399137829699737</c:v>
+                  <c:v>10.881176406988354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.555991686929411</c:v>
+                  <c:v>16.238842323269228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6536020508334426</c:v>
+                  <c:v>23.291629397704231</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7319253702818671</c:v>
+                  <c:v>31.606961258558215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,11 +434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319963576"/>
-        <c:axId val="319963184"/>
+        <c:axId val="228362160"/>
+        <c:axId val="360952688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319963576"/>
+        <c:axId val="228362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,12 +495,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319963184"/>
+        <c:crossAx val="360952688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319963184"/>
+        <c:axId val="360952688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319963576"/>
+        <c:crossAx val="228362160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1474,7 +1495,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M2" sqref="M2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1552,16 +1573,20 @@
         <v>62</v>
       </c>
       <c r="M2">
-        <f>LOG(AVERAGE(B2:K2))</f>
-        <v>1.6848453616444126</v>
+        <f>AVERAGE(B2:K2)</f>
+        <v>48.4</v>
       </c>
       <c r="N2">
-        <f>LOG(STDEV(B2:K2))</f>
-        <v>0.93989825436007135</v>
+        <f>STDEV(B2:K2)</f>
+        <v>8.7075956625363808</v>
+      </c>
+      <c r="O2">
+        <f>100*N2/M2</f>
+        <v>17.9909001292074</v>
       </c>
       <c r="P2">
         <f>SQRT(M2)</f>
-        <v>1.2980159327390448</v>
+        <v>6.9570108523704342</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1599,16 +1624,20 @@
         <v>51</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="0">LOG(AVERAGE(B3:K3))</f>
-        <v>1.6901960800285136</v>
+        <f t="shared" ref="M3:M8" si="0">AVERAGE(B3:K3)</f>
+        <v>49</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N8" si="1">LOG(STDEV(B3:K3))</f>
-        <v>0.79982025860227479</v>
+        <f t="shared" ref="N3:N8" si="1">STDEV(B3:K3)</f>
+        <v>6.3069626428081671</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O8" si="2">100*N3/M3</f>
+        <v>12.871352332261566</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P8" si="2">SQRT(M3)</f>
-        <v>1.300075413208216</v>
+        <f t="shared" ref="P3:P8" si="3">SQRT(M3)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -1647,15 +1676,19 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>1.7795964912578246</v>
+        <v>60.2</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>0.80078858681093312</v>
+        <v>6.321040701937898</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>10.50006761119252</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
-        <v>1.3340151765470378</v>
+        <f t="shared" si="3"/>
+        <v>7.758865896508329</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1694,15 +1727,19 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>2.0733517023869008</v>
+        <v>118.4</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>0.96225450536683854</v>
+        <v>9.1675757125013391</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>7.7428848923153195</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
-        <v>1.4399137829699737</v>
+        <f t="shared" si="3"/>
+        <v>10.881176406988354</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1741,15 +1778,19 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>2.4211101297934343</v>
+        <v>263.7</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>1.1246807210325835</v>
+        <v>13.325414315009747</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>5.0532477493400627</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
-        <v>1.555991686929411</v>
+        <f t="shared" si="3"/>
+        <v>16.238842323269228</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1788,15 +1829,19 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>2.7343997425205671</v>
+        <v>542.5</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>1.1233723548619208</v>
+        <v>13.285330255586423</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>2.4489088028730732</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
-        <v>1.6536020508334426</v>
+        <f t="shared" si="3"/>
+        <v>23.291629397704231</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1835,15 +1880,19 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>2.9995654882259823</v>
+        <v>999</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>1.6898038178316102</v>
+        <v>48.955762343841265</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>4.9004767110952212</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
-        <v>1.7319253702818671</v>
+        <f t="shared" si="3"/>
+        <v>31.606961258558215</v>
       </c>
     </row>
   </sheetData>
